--- a/stage2_excels/PD/PD_kfold_one.xlsx
+++ b/stage2_excels/PD/PD_kfold_one.xlsx
@@ -453,27 +453,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8163289014581295</v>
+        <v>0.816328901458192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7901988663196069</v>
+        <v>0.7901988663196053</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6906375927127231</v>
+        <v>0.6906375927127315</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6586315729483426</v>
+        <v>0.6586315728949811</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5586399678000937</v>
+        <v>0.5586399678000944</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/PD/PD_kfold_one.xlsx
+++ b/stage2_excels/PD/PD_kfold_one.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,2749 @@
         <v>0.5586399678000944</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5539456493528729</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lab_l_25</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5105978828766476</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4953132835110526</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4810109356708906</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>lab_l_median</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4787217335062119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4423698659730455</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4343998588663405</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hsv_v_25</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4041730251285591</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>hsv_v_75</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3916341044989459</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>hsv_v_75</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3811673841061515</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hsv_h_25</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3503380205635205</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hsv_v_75</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.284813884848189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hsv_v_25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2600727294111963</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>hsv_h_variance</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.05336654771769998</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>xyz_x_25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.1760392891677225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>lab_l_75</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1977105884188083</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>xyz_x_median</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.210202673895872</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>lab_l_mean</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2323740423377095</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>lab_l_median</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2454586170274419</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3507467735270396</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>xyz_x_75</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.3671879268231449</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.4196404848934907</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.4201187943211702</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.422434892749028</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>xyz_y_75</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.4587450536362087</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>hsv_s_variance</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.5149118532678043</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>hsv_h_std_dev</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.5163671126798947</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>lab_l_variance</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.5587699185734197</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>lab_l_25</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.616054446244825</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>lab_l_std_dev</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.6167313772623343</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.6378636235701501</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>hsv_h_variance</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.6704349586802354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>lab_l_variance</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.7025302590507597</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>lab_l_std_dev</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.7163967503151144</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>hsv_h_std_dev</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.7195472731880767</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>xyz_x_mean</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.7467492831249016</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.902546380581521</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.9151597207080362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>hsv_h_variance</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.9638491131835268</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.9969578118762075</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>xyz_z_mean</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.020952183949464</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.038215354853689</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>xyz_x_25</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.059281744233174</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.065066428449776</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>hsv_s_variance</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1.090653972727232</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>xyz_y_median</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.099800413859426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1.167816514593991</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>xyz_z_mean</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.285771848412104</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>hsv_s_std_dev</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-1.299066619799697</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>xyz_y_25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.399876870887505</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>hsv_h_std_dev</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.506198247038236</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>xyz_y_mean</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.534254072946592</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>hsv_s_std_dev</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.536856841008397</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>xyz_y_25</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1.547645741548994</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1.57564949796505</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-1.618958503776853</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>lab_l_75</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.630502618080869</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.698593004659869</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>lab_l_variance</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-2.039168228166868</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>xyz_z_median</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-2.132681957579172</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>xyz_x_75</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-2.217475219933163</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>xyz_y_75</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-2.376838653129428</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>lab_l_mean</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-2.430426985862856</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-2.430489078241867</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-2.444828252677032</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>hsv_s_variance</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-2.486268125240734</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>lab_l_std_dev</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-2.497481905020527</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>hsv_s_std_dev</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-2.604028373849404</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>xyz_z_median</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-2.677863619913324</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>xyz_x_median</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-2.707913622246597</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>xyz_z_75</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-2.889181487605387</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-2.925503170884771</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>lab_a_mean</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-3.120604643402706</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>xyz_z_75</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-3.159558946001765</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>xyz_x_mean</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-3.175880342669937</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-3.248927410582006</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-3.355657666414216</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>hsv_s_25</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-3.437695624613524</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-3.511579107759412</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>xyz_z_mean</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-3.511919877328422</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>lab_l_median</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-3.532864511334209</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-3.59167641493966</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>hsv_v_25</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-3.611378244365858</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-3.620662897722708</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>lab_l_25</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-3.634751499051947</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>xyz_y_mean</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-3.702252317325522</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>hsv_s_75</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-3.749384404817424</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>xyz_y_median</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-3.893545085471383</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>xyz_x_25</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-3.965819259928445</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-4.049786380875441</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-4.070974825553796</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-4.092155063130068</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-4.484124860374625</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>lab_l_mean</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-4.540950247300994</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-4.557562620506227</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>xyz_x_mean</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-4.762508076666306</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>xyz_y_mean</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-4.762696519500858</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-4.829299026453163</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>hsv_s_25</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-4.877944378272661</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>xyz_y_25</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-4.977188546291496</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-4.997937167913209</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-5.159295030227693</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-5.16104959604792</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>lab_l_75</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-5.25397382465916</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-5.362188751842123</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>xyz_x_median</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-5.469280880420208</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-5.497232682797195</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-5.629787198585804</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>hsv_h_75</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-5.660837599911623</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-5.700077306380008</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>xyz_y_median</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-5.77305036786381</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>xyz_y_75</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-5.803396874586596</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>hsv_h_75</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-5.91417657469532</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>lab_a_std_dev</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-5.925933858825834</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>lab_a_std_dev</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-6.001253370971221</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>xyz_x_75</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-6.06767415620779</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-6.075947764903305</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-6.080986063582664</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-6.202975684365105</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-6.214799050635371</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-6.360086044784728</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-6.361052948614015</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-6.389631638700155</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>hsv_h_75</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-6.788749242401752</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>hsv_s_25</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-6.938940844059898</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-7.36561413793014</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-7.631502687731323</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>lab_b_mean</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-7.796252590212946</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>lab_a_median</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>lab_a_median</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>lab_b_25</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>lab_a_median</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>lab_a_25</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>lab_b_25</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>lab_b_25</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>lab_b_median</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>lab_b_median</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>lab_b_median</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>lab_a_25</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>lab_a_25</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-8.210759360928286</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>lab_b_std_dev</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-8.32602061105348</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>xyz_z_25</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-8.932452697266736</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>xyz_z_75</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-9.049005505914176</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>xyz_z_variance</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-9.153584023278334</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>lab_b_std_dev</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-9.177988132192676</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>xyz_z_std_dev</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-9.6170831044524</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>xyz_z_25</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-10.43848136444251</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>lab_b_variance</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-10.55358121547468</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>lab_a_std_dev</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-10.84351532808587</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>lab_b_mean</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-11.79880229928319</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>lab_a_75</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-12.19174210774735</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>lab_a_variance</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-12.30026070493103</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>lab_b_variance</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-12.596930485698</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>lab_a_75</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-12.80089838229095</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>xyz_z_variance</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-13.46187231075052</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>lab_a_75</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-13.75066159462393</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>xyz_z_std_dev</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-14.04801072620106</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-14.47926149065709</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>lab_a_mean</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-15.40330449648306</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>lab_a_variance</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-16.10871306187514</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-17.98627800015124</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>lab_b_mean</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-18.24820974244958</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>lab_b_std_dev</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-18.28338012306471</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>xyz_x_std_dev</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-19.23988008020526</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>xyz_x_variance</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-19.33552441182389</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>xyz_z_median</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-19.85167937106788</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-21.52323644466713</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-21.73945352834038</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>xyz_x_variance</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-21.94183318262133</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>lab_b_variance</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-22.32576988640018</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-22.75358983536194</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>xyz_x_std_dev</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-24.62453234424518</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-28.47956123320044</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-31.90514315740917</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-32.0009793814801</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-32.68058750661128</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-34.48560621509081</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>lab_a_variance</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-36.57524601674104</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>xyz_z_variance</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-43.34516121986643</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-43.34528262028854</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>xyz_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-45.7385523540537</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>xyz_y_variance</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-50.01948571895868</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>hsv_s_75</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-53.93629977094372</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>xyz_y_variance</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-57.03216827072502</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>xyz_x_variance</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-65.55545603356011</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>xyz_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-68.00877885694619</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>xyz_x_std_dev</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-70.21167832701606</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>xyz_z_std_dev</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-71.03006515192803</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>lab_b_75</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+      <c r="C207" t="n">
+        <v>-72.87086000292433</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>hsv_s_75</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-85.81065482020918</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>lab_b_75</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-89.82982096882425</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-97.09047899926337</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>lab_b_75</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-97.11504633635622</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-103.0957435512908</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-109.0957785189079</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>xyz_y_variance</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-133.3520843795566</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>xyz_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-139.4421171278763</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>xyz_z_25</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-232.5685200843982</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>lab_a_mean</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-554.9602225255016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stage2_excels/PD/PD_kfold_one.xlsx
+++ b/stage2_excels/PD/PD_kfold_one.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,14 +531,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5105978828766476</v>
+        <v>0.4953132835110526</v>
       </c>
     </row>
     <row r="9">
@@ -548,88 +548,88 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4953132835110526</v>
+        <v>0.4810109356708906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4810109356708906</v>
+        <v>0.4423698659730455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4787217335062119</v>
+        <v>0.4343998588663405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4423698659730455</v>
+        <v>0.4041730251285591</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4343998588663405</v>
+        <v>0.3916341044989459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hsv_v_25</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4041730251285591</v>
+        <v>0.3811673841061515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hsv_v_75</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3916341044989459</v>
+        <v>0.3503380205635205</v>
       </c>
     </row>
     <row r="16">
@@ -639,2623 +639,1921 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3811673841061515</v>
+        <v>0.284813884848189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hsv_h_25</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3503380205635205</v>
+        <v>0.2600727294111963</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hsv_v_75</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.284813884848189</v>
+        <v>-0.05336654771769998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hsv_v_25</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2600727294111963</v>
+        <v>-0.1760392891677225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hsv_h_variance</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.05336654771769998</v>
+        <v>-0.210202673895872</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1760392891677225</v>
+        <v>-0.3507467735270396</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1977105884188083</v>
+        <v>-0.3671879268231449</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.210202673895872</v>
+        <v>-0.4196404848934907</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2323740423377095</v>
+        <v>-0.4201187943211702</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2454586170274419</v>
+        <v>-0.422434892749028</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3507467735270396</v>
+        <v>-0.4587450536362087</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3671879268231449</v>
+        <v>-0.5149118532678043</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.4196404848934907</v>
+        <v>-0.5163671126798947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.4201187943211702</v>
+        <v>-0.6378636235701501</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.422434892749028</v>
+        <v>-0.6704349586802354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>xyz_y_75</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4587450536362087</v>
+        <v>-0.7195472731880767</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.5149118532678043</v>
+        <v>-0.7467492831249016</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hsv_h_std_dev</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5163671126798947</v>
+        <v>-0.902546380581521</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5587699185734197</v>
+        <v>-0.9151597207080362</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.616054446244825</v>
+        <v>-0.9638491131835268</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.6167313772623343</v>
+        <v>-0.9969578118762075</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.6378636235701501</v>
+        <v>-1.020952183949464</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>hsv_h_variance</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.6704349586802354</v>
+        <v>-1.038215354853689</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.7025302590507597</v>
+        <v>-1.059281744233174</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.7163967503151144</v>
+        <v>-1.065066428449776</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hsv_h_std_dev</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.7195472731880767</v>
+        <v>-1.090653972727232</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.7467492831249016</v>
+        <v>-1.099800413859426</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.902546380581521</v>
+        <v>-1.167816514593991</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.9151597207080362</v>
+        <v>-1.285771848412104</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hsv_h_variance</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.9638491131835268</v>
+        <v>-1.299066619799697</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>hsv_h_mean</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.9969578118762075</v>
+        <v>-1.399876870887505</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>xyz_z_mean</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.020952183949464</v>
+        <v>-1.506198247038236</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.038215354853689</v>
+        <v>-1.534254072946592</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.059281744233174</v>
+        <v>-1.536856841008397</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>hsv_h_mean</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.065066428449776</v>
+        <v>-1.547645741548994</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.090653972727232</v>
+        <v>-1.57564949796505</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.099800413859426</v>
+        <v>-1.618958503776853</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.167816514593991</v>
+        <v>-1.698593004659869</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xyz_z_mean</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.285771848412104</v>
+        <v>-2.132681957579172</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.299066619799697</v>
+        <v>-2.217475219933163</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>xyz_y_25</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.399876870887505</v>
+        <v>-2.376838653129428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hsv_h_std_dev</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.506198247038236</v>
+        <v>-2.430489078241867</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.534254072946592</v>
+        <v>-2.444828252677032</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.536856841008397</v>
+        <v>-2.486268125240734</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>xyz_y_25</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.547645741548994</v>
+        <v>-2.604028373849404</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>hsv_h_mean</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.57564949796505</v>
+        <v>-2.677863619913324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.618958503776853</v>
+        <v>-2.707913622246597</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.630502618080869</v>
+        <v>-2.889181487605387</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.698593004659869</v>
+        <v>-2.925503170884771</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.039168228166868</v>
+        <v>-3.159558946001765</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.132681957579172</v>
+        <v>-3.175880342669937</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.217475219933163</v>
+        <v>-3.248927410582006</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>xyz_y_75</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>-2.376838653129428</v>
+        <v>-3.355657666414216</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-2.430426985862856</v>
+        <v>-3.437695624613524</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>-2.430489078241867</v>
+        <v>-3.511579107759412</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>yuv_v_std_dev</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>-2.444828252677032</v>
+        <v>-3.511919877328422</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>-2.486268125240734</v>
+        <v>-3.59167641493966</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.497481905020527</v>
+        <v>-3.611378244365858</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>-2.604028373849404</v>
+        <v>-3.620662897722708</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.677863619913324</v>
+        <v>-3.702252317325522</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.707913622246597</v>
+        <v>-3.749384404817424</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>xyz_z_75</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.889181487605387</v>
+        <v>-3.893545085471383</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>yuv_v_std_dev</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>-2.925503170884771</v>
+        <v>-3.965819259928445</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.120604643402706</v>
+        <v>-4.049786380875441</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>xyz_z_75</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>-3.159558946001765</v>
+        <v>-4.070974825553796</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>-3.175880342669937</v>
+        <v>-4.092155063130068</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>-3.248927410582006</v>
+        <v>-4.484124860374625</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>-3.355657666414216</v>
+        <v>-4.557562620506227</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>-3.437695624613524</v>
+        <v>-4.762508076666306</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-3.511579107759412</v>
+        <v>-4.762696519500858</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>xyz_z_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-3.511919877328422</v>
+        <v>-4.829299026453163</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>-3.532864511334209</v>
+        <v>-4.877944378272661</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>yuv_v_variance</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>-3.59167641493966</v>
+        <v>-4.977188546291496</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>hsv_v_25</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>-3.611378244365858</v>
+        <v>-4.997937167913209</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>yuv_u_std_dev</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>-3.620662897722708</v>
+        <v>-5.159295030227693</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>-3.634751499051947</v>
+        <v>-5.16104959604792</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>-3.702252317325522</v>
+        <v>-5.362188751842123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>hsv_s_75</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>-3.749384404817424</v>
+        <v>-5.469280880420208</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>-3.893545085471383</v>
+        <v>-5.497232682797195</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>-3.965819259928445</v>
+        <v>-5.629787198585804</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>-4.049786380875441</v>
+        <v>-5.660837599911623</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>-4.070974825553796</v>
+        <v>-5.700077306380008</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-4.092155063130068</v>
+        <v>-5.77305036786381</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>yuv_u_std_dev</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>-4.484124860374625</v>
+        <v>-5.803396874586596</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>-4.540950247300994</v>
+        <v>-5.91417657469532</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>-4.557562620506227</v>
+        <v>-6.06767415620779</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>-4.762508076666306</v>
+        <v>-6.075947764903305</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>-4.762696519500858</v>
+        <v>-6.080986063582664</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>-4.829299026453163</v>
+        <v>-6.202975684365105</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>-4.877944378272661</v>
+        <v>-6.214799050635371</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>xyz_y_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.977188546291496</v>
+        <v>-6.360086044784728</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>-4.997937167913209</v>
+        <v>-6.361052948614015</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>-5.159295030227693</v>
+        <v>-6.389631638700155</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>yuv_v_variance</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>-5.16104959604792</v>
+        <v>-6.788749242401752</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>-5.25397382465916</v>
+        <v>-6.938940844059898</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>-5.362188751842123</v>
+        <v>-7.36561413793014</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>-5.469280880420208</v>
+        <v>-7.631502687731323</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.497232682797195</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>-5.629787198585804</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>hsv_h_75</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>-5.660837599911623</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>-5.700077306380008</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>-5.77305036786381</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>xyz_y_75</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>-5.803396874586596</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>hsv_h_75</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.91417657469532</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>-5.925933858825834</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.001253370971221</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122" t="n">
-        <v>-6.06767415620779</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>yuv_u_std_dev</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>-6.075947764903305</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>-6.080986063582664</v>
+        <v>-8.210759360928286</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>-6.202975684365105</v>
+        <v>-8.932452697266736</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>-6.214799050635371</v>
+        <v>-9.049005505914176</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>yuv_u_25</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>-6.360086044784728</v>
+        <v>-9.153584023278334</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>yuv_v_std_dev</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>-6.361052948614015</v>
+        <v>-9.6170831044524</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>yuv_u_25</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>-6.389631638700155</v>
+        <v>-10.43848136444251</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>hsv_h_75</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>-6.788749242401752</v>
+        <v>-13.46187231075052</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>-6.938940844059898</v>
+        <v>-14.04801072620106</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>yuv_u_25</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>-7.36561413793014</v>
+        <v>-14.47926149065709</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>yuv_v_variance</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.631502687731323</v>
+        <v>-17.98627800015124</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>-7.796252590212946</v>
+        <v>-19.23988008020526</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>-8.210759360928286</v>
+        <v>-19.33552441182389</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C136" t="n">
-        <v>-8.210759360928286</v>
+        <v>-19.85167937106788</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>-8.210759360928286</v>
+        <v>-21.52323644466713</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>yuv_v_median</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>-8.210759360928286</v>
+        <v>-21.73945352834038</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>-8.210759360928286</v>
+        <v>-21.94183318262133</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>-8.210759360928286</v>
+        <v>-22.75358983536194</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" t="n">
-        <v>-8.210759360928286</v>
+        <v>-24.62453234424518</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>-8.210759360928286</v>
+        <v>-28.47956123320044</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>-8.210759360928286</v>
+        <v>-31.90514315740917</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>-8.210759360928286</v>
+        <v>-32.0009793814801</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>yuv_u_median</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>-8.210759360928286</v>
+        <v>-32.68058750661128</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>yuv_u_median</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>2</v>
       </c>
       <c r="C146" t="n">
-        <v>-8.210759360928286</v>
+        <v>-34.48560621509081</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>yuv_u_median</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>-8.210759360928286</v>
+        <v>-43.34516121986643</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>yuv_v_median</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>-8.210759360928286</v>
+        <v>-43.34528262028854</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>-8.210759360928286</v>
+        <v>-45.7385523540537</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C150" t="n">
-        <v>-8.210759360928286</v>
+        <v>-50.01948571895868</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>-8.210759360928286</v>
+        <v>-53.93629977094372</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" t="n">
-        <v>-8.210759360928286</v>
+        <v>-57.03216827072502</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>-8.210759360928286</v>
+        <v>-65.55545603356011</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>2</v>
       </c>
       <c r="C154" t="n">
-        <v>-8.210759360928286</v>
+        <v>-68.00877885694619</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>-8.210759360928286</v>
+        <v>-70.21167832701606</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>-8.210759360928286</v>
+        <v>-71.03006515192803</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>-8.210759360928286</v>
+        <v>-85.81065482020918</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>yuv_v_median</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158" t="n">
-        <v>-8.210759360928286</v>
+        <v>-97.09047899926337</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>-8.32602061105348</v>
+        <v>-103.0957435512908</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>xyz_z_25</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>-8.932452697266736</v>
+        <v>-109.0957785189079</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>xyz_z_75</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>-9.049005505914176</v>
+        <v>-133.3520843795566</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>-9.153584023278334</v>
+        <v>-139.4421171278763</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>-9.177988132192676</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>xyz_z_std_dev</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-9.6170831044524</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>xyz_z_25</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-10.43848136444251</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>lab_b_variance</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-10.55358121547468</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>lab_a_std_dev</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-10.84351532808587</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>lab_b_mean</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>3</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-11.79880229928319</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>lab_a_75</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-12.19174210774735</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>lab_a_variance</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-12.30026070493103</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>lab_b_variance</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>2</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-12.596930485698</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>lab_a_75</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>3</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-12.80089838229095</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>xyz_z_variance</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>2</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-13.46187231075052</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>lab_a_75</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>2</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-13.75066159462393</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>xyz_z_std_dev</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>2</v>
-      </c>
-      <c r="C175" t="n">
-        <v>-14.04801072620106</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>2</v>
-      </c>
-      <c r="C176" t="n">
-        <v>-14.47926149065709</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>lab_a_mean</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>2</v>
-      </c>
-      <c r="C177" t="n">
-        <v>-15.40330449648306</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>lab_a_variance</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>2</v>
-      </c>
-      <c r="C178" t="n">
-        <v>-16.10871306187514</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>3</v>
-      </c>
-      <c r="C179" t="n">
-        <v>-17.98627800015124</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>lab_b_mean</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>1</v>
-      </c>
-      <c r="C180" t="n">
-        <v>-18.24820974244958</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>lab_b_std_dev</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>1</v>
-      </c>
-      <c r="C181" t="n">
-        <v>-18.28338012306471</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>xyz_x_std_dev</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>3</v>
-      </c>
-      <c r="C182" t="n">
-        <v>-19.23988008020526</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>xyz_x_variance</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>2</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-19.33552441182389</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>xyz_z_median</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>-19.85167937106788</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>hsv_s_median</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>3</v>
-      </c>
-      <c r="C185" t="n">
-        <v>-21.52323644466713</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>1</v>
-      </c>
-      <c r="C186" t="n">
-        <v>-21.73945352834038</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>xyz_x_variance</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>3</v>
-      </c>
-      <c r="C187" t="n">
-        <v>-21.94183318262133</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>lab_b_variance</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>1</v>
-      </c>
-      <c r="C188" t="n">
-        <v>-22.32576988640018</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>2</v>
-      </c>
-      <c r="C189" t="n">
-        <v>-22.75358983536194</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>xyz_x_std_dev</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>2</v>
-      </c>
-      <c r="C190" t="n">
-        <v>-24.62453234424518</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>3</v>
-      </c>
-      <c r="C191" t="n">
-        <v>-28.47956123320044</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>1</v>
-      </c>
-      <c r="C192" t="n">
-        <v>-31.90514315740917</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>3</v>
-      </c>
-      <c r="C193" t="n">
-        <v>-32.0009793814801</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>3</v>
-      </c>
-      <c r="C194" t="n">
-        <v>-32.68058750661128</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2</v>
-      </c>
-      <c r="C195" t="n">
-        <v>-34.48560621509081</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>lab_a_variance</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>3</v>
-      </c>
-      <c r="C196" t="n">
-        <v>-36.57524601674104</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>xyz_z_variance</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>3</v>
-      </c>
-      <c r="C197" t="n">
-        <v>-43.34516121986643</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>2</v>
-      </c>
-      <c r="C198" t="n">
-        <v>-43.34528262028854</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>xyz_y_std_dev</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>3</v>
-      </c>
-      <c r="C199" t="n">
-        <v>-45.7385523540537</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>xyz_y_variance</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>3</v>
-      </c>
-      <c r="C200" t="n">
-        <v>-50.01948571895868</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>hsv_s_75</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>2</v>
-      </c>
-      <c r="C201" t="n">
-        <v>-53.93629977094372</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>xyz_y_variance</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>2</v>
-      </c>
-      <c r="C202" t="n">
-        <v>-57.03216827072502</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>xyz_x_variance</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>1</v>
-      </c>
-      <c r="C203" t="n">
-        <v>-65.55545603356011</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>xyz_y_std_dev</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>2</v>
-      </c>
-      <c r="C204" t="n">
-        <v>-68.00877885694619</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>xyz_x_std_dev</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>1</v>
-      </c>
-      <c r="C205" t="n">
-        <v>-70.21167832701606</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>xyz_z_std_dev</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>3</v>
-      </c>
-      <c r="C206" t="n">
-        <v>-71.03006515192803</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>lab_b_75</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>3</v>
-      </c>
-      <c r="C207" t="n">
-        <v>-72.87086000292433</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>hsv_s_75</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>3</v>
-      </c>
-      <c r="C208" t="n">
-        <v>-85.81065482020918</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>lab_b_75</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>2</v>
-      </c>
-      <c r="C209" t="n">
-        <v>-89.82982096882425</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>hsv_s_mean</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>3</v>
-      </c>
-      <c r="C210" t="n">
-        <v>-97.09047899926337</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>lab_b_75</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>1</v>
-      </c>
-      <c r="C211" t="n">
-        <v>-97.11504633635622</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>1</v>
-      </c>
-      <c r="C212" t="n">
-        <v>-103.0957435512908</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>1</v>
-      </c>
-      <c r="C213" t="n">
-        <v>-109.0957785189079</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>xyz_y_variance</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>1</v>
-      </c>
-      <c r="C214" t="n">
-        <v>-133.3520843795566</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>xyz_y_std_dev</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>1</v>
-      </c>
-      <c r="C215" t="n">
-        <v>-139.4421171278763</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>xyz_z_25</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>3</v>
-      </c>
-      <c r="C216" t="n">
         <v>-232.5685200843982</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>lab_a_mean</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>3</v>
-      </c>
-      <c r="C217" t="n">
-        <v>-554.9602225255016</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/PD/PD_kfold_one.xlsx
+++ b/stage2_excels/PD/PD_kfold_one.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="PD" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -453,131 +453,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hsv_h_25</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.816328901458192</v>
+        <v>0.2253231605607192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hsv_h_25</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7901988663196053</v>
+        <v>0.2248606744407663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6906375927127315</v>
+        <v>0.2019526546556522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6586315728949811</v>
+        <v>0.1878756705724426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5586399678000944</v>
+        <v>-0.02668292745190157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5539456493528729</v>
+        <v>-0.03745963652823203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4953132835110526</v>
+        <v>-0.07619052430597111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4810109356708906</v>
+        <v>-0.0797060221531557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4423698659730455</v>
+        <v>-0.09200740529034154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4343998588663405</v>
+        <v>-0.1004145466215577</v>
       </c>
     </row>
     <row r="12">
@@ -587,49 +587,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4041730251285591</v>
+        <v>-0.1467991473186158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hsv_v_75</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3916341044989459</v>
+        <v>-0.1726107447039998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hsv_v_75</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3811673841061515</v>
+        <v>-0.1795155250966987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hsv_h_25</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3503380205635205</v>
+        <v>-0.1849759683724229</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284813884848189</v>
+        <v>-0.2387985611032231</v>
       </c>
     </row>
     <row r="17">
@@ -652,296 +652,296 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2600727294111963</v>
+        <v>-0.2565051800845793</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hsv_h_variance</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.05336654771769998</v>
+        <v>-0.2715169724724908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1760392891677225</v>
+        <v>-0.2755468447520914</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.210202673895872</v>
+        <v>-0.2795201448453163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3507467735270396</v>
+        <v>-0.2899290629077498</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3671879268231449</v>
+        <v>-0.3075185037517431</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4196404848934907</v>
+        <v>-0.3321201912073216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.4201187943211702</v>
+        <v>-0.3575179051570059</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.422434892749028</v>
+        <v>-0.3582170768473443</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>xyz_y_75</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4587450536362087</v>
+        <v>-0.4641431869754316</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5149118532678043</v>
+        <v>-0.5246955312726753</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hsv_h_std_dev</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.5163671126798947</v>
+        <v>-0.5385249624663617</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.6378636235701501</v>
+        <v>-0.5583710114170347</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>hsv_h_variance</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.6704349586802354</v>
+        <v>-0.6076005174169944</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hsv_h_std_dev</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.7195472731880767</v>
+        <v>-0.6263063596241896</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.7467492831249016</v>
+        <v>-0.6387908165093098</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.902546380581521</v>
+        <v>-0.6560472333777948</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.9151597207080362</v>
+        <v>-0.6878416184678299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hsv_h_variance</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.9638491131835268</v>
+        <v>-0.7433901998883921</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>hsv_h_mean</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9969578118762075</v>
+        <v>-0.7466365123005099</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>xyz_z_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.020952183949464</v>
+        <v>-0.7564489881679075</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.038215354853689</v>
+        <v>-0.8126924566152161</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.059281744233174</v>
+        <v>-0.8314387488311858</v>
       </c>
     </row>
     <row r="40">
@@ -951,1612 +951,1612 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.065066428449776</v>
+        <v>-0.8513492821194474</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.090653972727232</v>
+        <v>-0.8801881119226674</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.099800413859426</v>
+        <v>-0.9209334496884676</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.167816514593991</v>
+        <v>-0.9220915963780927</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>xyz_z_mean</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.285771848412104</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.299066619799697</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>xyz_y_25</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.399876870887505</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>hsv_h_std_dev</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.506198247038236</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.534254072946592</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.536856841008397</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>xyz_y_25</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.547645741548994</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>hsv_h_mean</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.57564949796505</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.618958503776853</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.698593004659869</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>-2.132681957579172</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.217475219933163</v>
+        <v>-0.9229949176906198</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>xyz_y_75</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>-2.376838653129428</v>
+        <v>-0.963618472711594</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.430489078241867</v>
+        <v>-0.9804652281476944</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>yuv_v_std_dev</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.444828252677032</v>
+        <v>-1.024534950202618</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>-2.486268125240734</v>
+        <v>-1.031925614710495</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.604028373849404</v>
+        <v>-1.040048132039967</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.677863619913324</v>
+        <v>-1.044075535328359</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.707913622246597</v>
+        <v>-1.050099747620785</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>xyz_z_75</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.889181487605387</v>
+        <v>-1.134228345310869</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>yuv_v_std_dev</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.925503170884771</v>
+        <v>-1.138566753615076</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>xyz_z_75</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-3.159558946001765</v>
+        <v>-1.13896345779416</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.175880342669937</v>
+        <v>-1.164412326661568</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>-3.248927410582006</v>
+        <v>-1.200449487713778</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>-3.355657666414216</v>
+        <v>-1.270192050563231</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-3.437695624613524</v>
+        <v>-1.305557702915819</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>-3.511579107759412</v>
+        <v>-1.338342386176008</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>xyz_z_mean</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>-3.511919877328422</v>
+        <v>-1.370552257642216</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>yuv_v_variance</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>-3.59167641493966</v>
+        <v>-1.391588795535126</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hsv_v_25</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>-3.611378244365858</v>
+        <v>-1.398516229845847</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>yuv_u_std_dev</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>-3.620662897722708</v>
+        <v>-1.410973921497513</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>-3.702252317325522</v>
+        <v>-1.415996958408467</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>hsv_s_75</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.749384404817424</v>
+        <v>-1.4173570904624</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>-3.893545085471383</v>
+        <v>-1.422636126382066</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>-3.965819259928445</v>
+        <v>-1.437001320349556</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>-4.049786380875441</v>
+        <v>-1.437999739737785</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>-4.070974825553796</v>
+        <v>-1.470292090600799</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.092155063130068</v>
+        <v>-1.520952120563714</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>yuv_u_std_dev</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>-4.484124860374625</v>
+        <v>-1.530081355995639</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>-4.557562620506227</v>
+        <v>-1.538314296046648</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.762508076666306</v>
+        <v>-1.556258903581679</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>-4.762696519500858</v>
+        <v>-1.591613294991685</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-4.829299026453163</v>
+        <v>-1.685760952000795</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>-4.877944378272661</v>
+        <v>-1.713493154329518</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>xyz_y_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>-4.977188546291496</v>
+        <v>-1.753530296494305</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>-4.997937167913209</v>
+        <v>-1.913117639002799</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>-5.159295030227693</v>
+        <v>-2.004290936467553</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>yuv_v_variance</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>-5.16104959604792</v>
+        <v>-2.027898665705223</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>-5.362188751842123</v>
+        <v>-2.039647536711036</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>-5.469280880420208</v>
+        <v>-2.16011557145571</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>-5.497232682797195</v>
+        <v>-2.350092783631502</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>-5.629787198585804</v>
+        <v>-2.372365826818924</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>hsv_h_75</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>-5.660837599911623</v>
+        <v>-2.38105680218525</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>-5.700077306380008</v>
+        <v>-2.38159963827942</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-5.77305036786381</v>
+        <v>-2.393949267364107</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>xyz_y_75</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>-5.803396874586596</v>
+        <v>-2.420679115157357</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>hsv_h_75</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>-5.91417657469532</v>
+        <v>-2.444571238139836</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>-6.06767415620779</v>
+        <v>-2.453060852791887</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>yuv_u_std_dev</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>-6.075947764903305</v>
+        <v>-2.490271928560798</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>-6.080986063582664</v>
+        <v>-2.524564926203965</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>-6.202975684365105</v>
+        <v>-2.575633111496324</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.214799050635371</v>
+        <v>-2.585736998105948</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>yuv_u_25</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>-6.360086044784728</v>
+        <v>-2.594624604269631</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>yuv_v_std_dev</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>-6.361052948614015</v>
+        <v>-2.727661290888819</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>yuv_u_25</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>-6.389631638700155</v>
+        <v>-2.780126702729449</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>hsv_h_75</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>-6.788749242401752</v>
+        <v>-2.833420729061642</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>-6.938940844059898</v>
+        <v>-2.927659358053314</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>yuv_u_25</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>-7.36561413793014</v>
+        <v>-3.230076407710747</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>yuv_v_variance</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>-7.631502687731323</v>
+        <v>-3.352344635307399</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>yuv_u_median</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.399837256783317</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.409378992408578</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.490476677632446</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.517262173866365</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>yuv_u_median</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.564200695292463</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>yuv_v_median</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.568975332052783</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>yuv_v_median</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.730635871470528</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.737902687071074</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>yuv_v_median</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.753824795900601</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.767938382161923</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-8.210759360928286</v>
+        <v>-3.904247104735058</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>yuv_u_median</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>-8.210759360928286</v>
+        <v>-4.003992988869369</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>xyz_z_25</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>-8.932452697266736</v>
+        <v>-4.120606870623115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>xyz_z_75</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>-9.049005505914176</v>
+        <v>-4.263448529280987</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>-9.153584023278334</v>
+        <v>-4.27772321585485</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>xyz_z_std_dev</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C128" t="n">
-        <v>-9.6170831044524</v>
+        <v>-5.048442292677667</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>xyz_z_25</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>-10.43848136444251</v>
+        <v>-5.386589089963975</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>-13.46187231075052</v>
+        <v>-5.418993998901517</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>xyz_z_std_dev</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>-14.04801072620106</v>
+        <v>-6.068944204369107</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132" t="n">
-        <v>-14.47926149065709</v>
+        <v>-6.323319725685854</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>yuv_v_75</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>-17.98627800015124</v>
+        <v>-6.401281700213697</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>xyz_x_std_dev</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" t="n">
-        <v>-19.23988008020526</v>
+        <v>-6.6038026165185</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>xyz_x_variance</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>-19.33552441182389</v>
+        <v>-7.223765054598656</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>-19.85167937106788</v>
+        <v>-7.339352698120086</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>-21.52323644466713</v>
+        <v>-8.45023593290313</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>yuv_v_75</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>-21.73945352834038</v>
+        <v>-8.739173352182251</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>xyz_x_variance</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>-21.94183318262133</v>
+        <v>-8.829759695539165</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>yuv_v_75</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>-22.75358983536194</v>
+        <v>-8.856893993894756</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>xyz_x_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>2</v>
       </c>
       <c r="C141" t="n">
-        <v>-24.62453234424518</v>
+        <v>-8.937810736723716</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>-28.47956123320044</v>
+        <v>-9.184770384723162</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>-31.90514315740917</v>
+        <v>-9.341658119530345</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>-32.0009793814801</v>
+        <v>-9.60412357800983</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>-32.68058750661128</v>
+        <v>-10.04867511948112</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C146" t="n">
-        <v>-34.48560621509081</v>
+        <v>-10.05735848370396</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>-43.34516121986643</v>
+        <v>-10.13069345322717</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>-43.34528262028854</v>
+        <v>-10.23982148777572</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>-45.7385523540537</v>
+        <v>-10.30251000798917</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>3</v>
       </c>
       <c r="C150" t="n">
-        <v>-50.01948571895868</v>
+        <v>-10.31044972448204</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>hsv_s_75</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>-53.93629977094372</v>
+        <v>-10.56788350789956</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>-57.03216827072502</v>
+        <v>-12.57609279108058</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>xyz_x_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>-65.55545603356011</v>
+        <v>-13.29021442551556</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>-68.00877885694619</v>
+        <v>-13.4924734992667</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>xyz_x_std_dev</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>-70.21167832701606</v>
+        <v>-14.24576484504652</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>xyz_z_std_dev</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>-71.03006515192803</v>
+        <v>-14.99637847931685</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>hsv_s_75</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>-85.81065482020918</v>
+        <v>-15.05737829575592</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>-97.09047899926337</v>
+        <v>-15.86548082544999</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>-103.0957435512908</v>
+        <v>-15.98000236677739</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>-109.0957785189079</v>
+        <v>-16.85505515690742</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>-133.3520843795566</v>
+        <v>-17.19204501833023</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>-139.4421171278763</v>
+        <v>-17.21943776056332</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>xyz_z_25</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>-232.5685200843982</v>
+        <v>-18.96931164420784</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>